--- a/UpperBasinConsumptiveUses/Upper Colorado River Basin Depletions and Evaporations.xlsx
+++ b/UpperBasinConsumptiveUses/Upper Colorado River Basin Depletions and Evaporations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTAH STATE UNIVERSITY\0000-work\data\upper basin demand data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Future_of_the_Colorado_River_Project\UpperBasinConsumptiveUses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD7693B-A2DC-4BE1-B24D-2F95D223A064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C9C29B-42FC-43EE-83ED-53E232889F08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="858" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="14" r:id="rId1"/>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Basin study scenarios calculation - based on Rivers.xlsx</t>
-  </si>
-  <si>
-    <t>Demand_Input_Tool_Current_Trends_And_Other_Scenarios_092412wFig_v4-UB CRSS Demands Data.xlsm</t>
   </si>
   <si>
     <t>(MAF/per year)</t>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>We use three ways to calculate depletion data. Results from different ways are very close to each other. Calculation process is shown in "Basin study scenarios calculation - based on State.xlsx", "Basin study scenarios calculation - based on Rivers.xlsx" AND "UB CRSS Demands Data.xlsm".</t>
+  </si>
+  <si>
+    <t>UB CRSS Demands Data.xlsm</t>
   </si>
 </sst>
 </file>
@@ -12110,7 +12110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616FCEDA-10C5-4845-8C41-2E24DA56F03E}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -12124,183 +12124,183 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="36"/>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="36"/>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>0</v>
@@ -12311,13 +12311,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -12325,24 +12325,24 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>13</v>
@@ -12353,10 +12353,10 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>15</v>
@@ -12364,44 +12364,44 @@
     </row>
     <row r="28" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -12442,38 +12442,38 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -12530,10 +12530,10 @@
         <v>4183.2857142857147</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -12554,10 +12554,10 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -13629,8 +13629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABA40DF-0866-47B6-B050-3425248E9CA3}">
   <dimension ref="A1:Q219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13657,27 +13657,27 @@
   <sheetData>
     <row r="1" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
@@ -15929,7 +15929,7 @@
     </row>
     <row r="61" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="Q61" s="19"/>
     </row>
@@ -21791,10 +21791,10 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -21802,17 +21802,17 @@
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1" s="38"/>
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
       <c r="Q1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -21838,10 +21838,10 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>38</v>
@@ -21873,63 +21873,63 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -26987,7 +26987,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>39</v>
@@ -26999,25 +26999,25 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -29158,33 +29158,33 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -29193,7 +29193,7 @@
       </c>
       <c r="C3" s="15"/>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -29243,7 +29243,7 @@
         <v>3351.6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
@@ -29591,7 +29591,7 @@
         <v>4678.7</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -29609,7 +29609,7 @@
         <v>4352.3999999999996</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="1">
         <v>1996</v>
@@ -29698,7 +29698,7 @@
         <v>4387</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="16">
         <v>671.5</v>
@@ -29787,7 +29787,7 @@
         <v>4518.6000000000004</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I25" s="16">
         <v>3840.2</v>
@@ -29876,7 +29876,7 @@
         <v>4310.3999999999996</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" s="7">
         <f>SUM(I24:I25)</f>
@@ -30029,7 +30029,7 @@
         <v>4015.2000000000003</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -30074,7 +30074,7 @@
         <v>4511.7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="1">
         <v>1971</v>
@@ -30167,7 +30167,7 @@
         <v>4292.8999999999996</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I30" s="16">
         <v>441.9</v>
@@ -30260,7 +30260,7 @@
         <v>4405.3999999999996</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I31" s="16">
         <v>2951.4</v>
@@ -30353,7 +30353,7 @@
         <v>4224.3</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="7">
         <f>I30+I31</f>
@@ -30486,7 +30486,7 @@
         <v>4835.3</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -31075,13 +31075,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -31092,7 +31092,7 @@
         <v>3960</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -31103,7 +31103,7 @@
         <v>3989</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -31122,7 +31122,7 @@
         <v>4048</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -31582,25 +31582,25 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>34</v>
@@ -31629,43 +31629,43 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -33752,30 +33752,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -33842,7 +33842,7 @@
         <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>2010</v>
@@ -33879,7 +33879,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="3">
         <v>4802</v>
@@ -33916,7 +33916,7 @@
         <v>250</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="3">
         <v>5052</v>
@@ -33953,7 +33953,7 @@
         <v>250</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9">
         <v>250</v>
@@ -33990,7 +33990,7 @@
         <v>250</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <f t="shared" ref="I10:M11" si="2">I7-H7</f>
@@ -34029,7 +34029,7 @@
         <v>250</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
@@ -34757,28 +34757,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3"/>
       <c r="F2" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -34834,7 +34834,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7">
         <v>4753</v>
@@ -34864,7 +34864,7 @@
         <v>520</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="24">
         <v>520</v>
@@ -34894,7 +34894,7 @@
         <v>520</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7">
         <f>G5+G6</f>
@@ -34929,7 +34929,7 @@
         <v>520</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G8" s="24"/>
       <c r="H8" s="24">
@@ -35406,39 +35406,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -35478,10 +35478,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -35500,10 +35500,10 @@
         <v>4135.2</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
